--- a/team_specific_matrix/Saint Mary's (CA)_B.xlsx
+++ b/team_specific_matrix/Saint Mary's (CA)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2217573221757322</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5062761506276151</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02092050209205021</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.004184100418410041</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1506276150627615</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.09623430962343096</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.05928853754940711</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1067193675889328</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2134387351778656</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1343873517786561</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.06719367588932806</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3952569169960474</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.08126410835214447</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.009029345372460496</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0654627539503386</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.126410835214447</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.006772009029345372</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1625282167042889</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.07223476297968397</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.4762979683972912</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.4909090909090909</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.08409506398537477</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.03290676416819013</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.09140767824497258</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1252285191956124</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.02010968921389397</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2056672760511883</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.07586837294332724</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3647166361974406</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1443661971830986</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07394366197183098</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5598591549295775</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.02464788732394366</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.7639751552795031</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1987577639751553</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.01863354037267081</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.213953488372093</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2093023255813954</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3310344827586207</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1655172413793103</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.20671834625323</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3850129198966408</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.09819121447028424</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01808785529715762</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.07235142118863049</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1343669250645995</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3670886075949367</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04430379746835443</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1012658227848101</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01791530944625407</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2174267100977199</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.08469055374592833</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3330618892508143</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1107491856677524</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03175895765472313</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.00244299674267101</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06921824104234528</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1327361563517915</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Saint Mary's (CA)_B.xlsx
+++ b/team_specific_matrix/Saint Mary's (CA)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2217573221757322</v>
+        <v>0.2217898832684825</v>
       </c>
       <c r="C2">
-        <v>0.5062761506276151</v>
+        <v>0.5058365758754864</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02092050209205021</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004184100418410041</v>
+        <v>0.003891050583657588</v>
       </c>
       <c r="P2">
-        <v>0.1506276150627615</v>
+        <v>0.1478599221789883</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09623430962343096</v>
+        <v>0.1011673151750973</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.024</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="C3">
-        <v>0.024</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.03731343283582089</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.72</v>
+        <v>0.7313432835820896</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.192</v>
+        <v>0.1865671641791045</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09523809523809523</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3191489361702128</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05928853754940711</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007905138339920948</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.003703703703703704</v>
       </c>
       <c r="F6">
-        <v>0.1067193675889328</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2134387351778656</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0158102766798419</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1343873517786561</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R6">
-        <v>0.06719367588932806</v>
+        <v>0.07037037037037037</v>
       </c>
       <c r="S6">
-        <v>0.3952569169960474</v>
+        <v>0.3962962962962963</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.12</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08500000000000001</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.135</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.16</v>
+        <v>0.1674418604651163</v>
       </c>
       <c r="R7">
-        <v>0.08</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="S7">
-        <v>0.405</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08126410835214447</v>
+        <v>0.0826271186440678</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009029345372460496</v>
+        <v>0.01059322033898305</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0654627539503386</v>
+        <v>0.06567796610169492</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.126410835214447</v>
+        <v>0.125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006772009029345372</v>
+        <v>0.006355932203389831</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1625282167042889</v>
+        <v>0.173728813559322</v>
       </c>
       <c r="R8">
-        <v>0.07223476297968397</v>
+        <v>0.06991525423728813</v>
       </c>
       <c r="S8">
-        <v>0.4762979683972912</v>
+        <v>0.4661016949152542</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,16 +911,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07878787878787878</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006060606060606061</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="E9">
-        <v>0.006060606060606061</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="F9">
         <v>0.06666666666666667</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1272727272727273</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01818181818181818</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="R9">
-        <v>0.07272727272727272</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="S9">
-        <v>0.4909090909090909</v>
+        <v>0.4722222222222222</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08409506398537477</v>
+        <v>0.08425531914893616</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03290676416819013</v>
+        <v>0.03404255319148936</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09140767824497258</v>
+        <v>0.0902127659574468</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1252285191956124</v>
+        <v>0.1234042553191489</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02010968921389397</v>
+        <v>0.01957446808510638</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2056672760511883</v>
+        <v>0.2059574468085106</v>
       </c>
       <c r="R10">
-        <v>0.07586837294332724</v>
+        <v>0.0748936170212766</v>
       </c>
       <c r="S10">
-        <v>0.3647166361974406</v>
+        <v>0.3676595744680851</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1443661971830986</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07394366197183098</v>
+        <v>0.07641196013289037</v>
       </c>
       <c r="K11">
-        <v>0.1971830985915493</v>
+        <v>0.1926910299003322</v>
       </c>
       <c r="L11">
-        <v>0.5598591549295775</v>
+        <v>0.5681063122923588</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02464788732394366</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7639751552795031</v>
+        <v>0.7630057803468208</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1987577639751553</v>
+        <v>0.1907514450867052</v>
       </c>
       <c r="K12">
-        <v>0.006211180124223602</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="L12">
-        <v>0.0124223602484472</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01863354037267081</v>
+        <v>0.02312138728323699</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7777777777777778</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2037037037037037</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01851851851851852</v>
+        <v>0.03278688524590164</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004651162790697674</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.213953488372093</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
-        <v>0.06976744186046512</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="J15">
-        <v>0.3488372093023256</v>
+        <v>0.3565217391304348</v>
       </c>
       <c r="K15">
-        <v>0.07906976744186046</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009302325581395349</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06511627906976744</v>
+        <v>0.06956521739130435</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2093023255813954</v>
+        <v>0.2043478260869565</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03448275862068965</v>
+        <v>0.03125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2413793103448276</v>
+        <v>0.23125</v>
       </c>
       <c r="I16">
-        <v>0.04137931034482759</v>
+        <v>0.0375</v>
       </c>
       <c r="J16">
-        <v>0.3310344827586207</v>
+        <v>0.35625</v>
       </c>
       <c r="K16">
-        <v>0.1103448275862069</v>
+        <v>0.1125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01379310344827586</v>
+        <v>0.01875</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06206896551724138</v>
+        <v>0.05625</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1655172413793103</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01550387596899225</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.20671834625323</v>
+        <v>0.2085308056872038</v>
       </c>
       <c r="I17">
-        <v>0.06976744186046512</v>
+        <v>0.06872037914691943</v>
       </c>
       <c r="J17">
-        <v>0.3850129198966408</v>
+        <v>0.3886255924170616</v>
       </c>
       <c r="K17">
-        <v>0.09819121447028424</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01808785529715762</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07235142118863049</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1343669250645995</v>
+        <v>0.1303317535545024</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03164556962025317</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1518987341772152</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="I18">
-        <v>0.0949367088607595</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="J18">
-        <v>0.3670886075949367</v>
+        <v>0.3705882352941177</v>
       </c>
       <c r="K18">
-        <v>0.1075949367088608</v>
+        <v>0.1117647058823529</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04430379746835443</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="N18">
-        <v>0.006329113924050633</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="O18">
-        <v>0.0949367088607595</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1012658227848101</v>
+        <v>0.09411764705882353</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01791530944625407</v>
+        <v>0.01761102603369066</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2174267100977199</v>
+        <v>0.217457886676876</v>
       </c>
       <c r="I19">
-        <v>0.08469055374592833</v>
+        <v>0.08652373660030628</v>
       </c>
       <c r="J19">
-        <v>0.3330618892508143</v>
+        <v>0.3330781010719755</v>
       </c>
       <c r="K19">
-        <v>0.1107491856677524</v>
+        <v>0.1094946401225115</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03175895765472313</v>
+        <v>0.03215926493108729</v>
       </c>
       <c r="N19">
-        <v>0.00244299674267101</v>
+        <v>0.002297090352220521</v>
       </c>
       <c r="O19">
-        <v>0.06921824104234528</v>
+        <v>0.07044410413476264</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1327361563517915</v>
+        <v>0.1309341500765697</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Saint Mary's (CA)_B.xlsx
+++ b/team_specific_matrix/Saint Mary's (CA)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2217898832684825</v>
+        <v>0.2200772200772201</v>
       </c>
       <c r="C2">
-        <v>0.5058365758754864</v>
+        <v>0.5096525096525096</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01945525291828794</v>
+        <v>0.0193050193050193</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003891050583657588</v>
+        <v>0.003861003861003861</v>
       </c>
       <c r="P2">
-        <v>0.1478599221789883</v>
+        <v>0.1467181467181467</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1011673151750973</v>
+        <v>0.1003861003861004</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02238805970149254</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="C3">
-        <v>0.02238805970149254</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03731343283582089</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7313432835820896</v>
+        <v>0.7279411764705882</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1865671641791045</v>
+        <v>0.1911764705882353</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0851063829787234</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5957446808510638</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3191489361702128</v>
+        <v>0.3061224489795918</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,16 +734,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05555555555555555</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007407407407407408</v>
+        <v>0.007168458781362007</v>
       </c>
       <c r="E6">
-        <v>0.003703703703703704</v>
+        <v>0.003584229390681004</v>
       </c>
       <c r="F6">
         <v>0.1111111111111111</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2074074074074074</v>
+        <v>0.2007168458781362</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01481481481481482</v>
+        <v>0.01433691756272401</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1333333333333333</v>
+        <v>0.1362007168458781</v>
       </c>
       <c r="R6">
-        <v>0.07037037037037037</v>
+        <v>0.06810035842293907</v>
       </c>
       <c r="S6">
-        <v>0.3962962962962963</v>
+        <v>0.4050179211469534</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1162790697674419</v>
+        <v>0.1146788990825688</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004651162790697674</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08837209302325581</v>
+        <v>0.0871559633027523</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1302325581395349</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009302325581395349</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1674418604651163</v>
+        <v>0.1697247706422018</v>
       </c>
       <c r="R7">
-        <v>0.08372093023255814</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.4036697247706422</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0826271186440678</v>
+        <v>0.08057851239669421</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01059322033898305</v>
+        <v>0.01033057851239669</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06567796610169492</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.125</v>
+        <v>0.1239669421487603</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006355932203389831</v>
+        <v>0.006198347107438017</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.173728813559322</v>
+        <v>0.1735537190082645</v>
       </c>
       <c r="R8">
-        <v>0.06991525423728813</v>
+        <v>0.07231404958677685</v>
       </c>
       <c r="S8">
-        <v>0.4661016949152542</v>
+        <v>0.4669421487603306</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08888888888888889</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005555555555555556</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="E9">
-        <v>0.005555555555555556</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="F9">
-        <v>0.06666666666666667</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1333333333333333</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01666666666666667</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1333333333333333</v>
+        <v>0.1436170212765958</v>
       </c>
       <c r="R9">
-        <v>0.07777777777777778</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="S9">
-        <v>0.4722222222222222</v>
+        <v>0.4680851063829787</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08425531914893616</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03404255319148936</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0902127659574468</v>
+        <v>0.09075907590759076</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1234042553191489</v>
+        <v>0.1221122112211221</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01957446808510638</v>
+        <v>0.01897689768976898</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2059574468085106</v>
+        <v>0.2120462046204621</v>
       </c>
       <c r="R10">
-        <v>0.0748936170212766</v>
+        <v>0.07508250825082509</v>
       </c>
       <c r="S10">
-        <v>0.3676595744680851</v>
+        <v>0.363036303630363</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1395348837209302</v>
+        <v>0.1405228758169935</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07641196013289037</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="K11">
-        <v>0.1926910299003322</v>
+        <v>0.1928104575163399</v>
       </c>
       <c r="L11">
-        <v>0.5681063122923588</v>
+        <v>0.565359477124183</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02325581395348837</v>
+        <v>0.02287581699346405</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7630057803468208</v>
+        <v>0.76</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1907514450867052</v>
+        <v>0.1942857142857143</v>
       </c>
       <c r="K12">
-        <v>0.005780346820809248</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="L12">
-        <v>0.01734104046242774</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02312138728323699</v>
+        <v>0.02285714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7704918032786885</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1967213114754098</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03278688524590164</v>
+        <v>0.03174603174603174</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004347826086956522</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2</v>
+        <v>0.1983122362869198</v>
       </c>
       <c r="I15">
-        <v>0.0782608695652174</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="J15">
-        <v>0.3565217391304348</v>
+        <v>0.3586497890295359</v>
       </c>
       <c r="K15">
-        <v>0.07391304347826087</v>
+        <v>0.07172995780590717</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01304347826086956</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06956521739130435</v>
+        <v>0.07172995780590717</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2043478260869565</v>
+        <v>0.2067510548523207</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03125</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.23125</v>
+        <v>0.2269938650306748</v>
       </c>
       <c r="I16">
-        <v>0.0375</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="J16">
-        <v>0.35625</v>
+        <v>0.3558282208588957</v>
       </c>
       <c r="K16">
-        <v>0.1125</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01875</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05625</v>
+        <v>0.05521472392638037</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.15625</v>
+        <v>0.1595092024539877</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01421800947867299</v>
+        <v>0.01348314606741573</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2085308056872038</v>
+        <v>0.2022471910112359</v>
       </c>
       <c r="I17">
-        <v>0.06872037914691943</v>
+        <v>0.07191011235955057</v>
       </c>
       <c r="J17">
-        <v>0.3886255924170616</v>
+        <v>0.3910112359550562</v>
       </c>
       <c r="K17">
-        <v>0.0995260663507109</v>
+        <v>0.09662921348314607</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01895734597156398</v>
+        <v>0.01797752808988764</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07109004739336493</v>
+        <v>0.07191011235955057</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1303317535545024</v>
+        <v>0.1348314606741573</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1529411764705882</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="I18">
-        <v>0.09411764705882353</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="J18">
-        <v>0.3705882352941177</v>
+        <v>0.36</v>
       </c>
       <c r="K18">
-        <v>0.1117647058823529</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04705882352941176</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="N18">
-        <v>0.005882352941176471</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="O18">
-        <v>0.09411764705882353</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09411764705882353</v>
+        <v>0.09714285714285714</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01761102603369066</v>
+        <v>0.01779095626389918</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.217457886676876</v>
+        <v>0.2164566345441067</v>
       </c>
       <c r="I19">
-        <v>0.08652373660030628</v>
+        <v>0.08673091178650852</v>
       </c>
       <c r="J19">
-        <v>0.3330781010719755</v>
+        <v>0.3335804299481097</v>
       </c>
       <c r="K19">
-        <v>0.1094946401225115</v>
+        <v>0.1074870274277242</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03215926493108729</v>
+        <v>0.03187546330615271</v>
       </c>
       <c r="N19">
-        <v>0.002297090352220521</v>
+        <v>0.002223869532987398</v>
       </c>
       <c r="O19">
-        <v>0.07044410413476264</v>
+        <v>0.07116382505559674</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1309341500765697</v>
+        <v>0.1326908821349148</v>
       </c>
     </row>
   </sheetData>
